--- a/report.xlsx
+++ b/report.xlsx
@@ -8,14 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Analysis" sheetId="1" r:id="rId1"/>
-    <sheet name="DU2TAN15AJ049163detail" sheetId="2" r:id="rId2"/>
+    <sheet name="192.168.179.101_5555detail" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>monkey性能监控</t>
   </si>
@@ -74,34 +74,31 @@
     <t>下行流量均值</t>
   </si>
   <si>
-    <t>H60-L02_Huawei_4.4</t>
-  </si>
-  <si>
-    <t>8核</t>
-  </si>
-  <si>
-    <t>3014M</t>
-  </si>
-  <si>
-    <t>1080x1920</t>
+    <t>.geny-def]:_.geny-def]:_]:</t>
+  </si>
+  <si>
+    <t>4核</t>
+  </si>
+  <si>
+    <t>2003.0M</t>
+  </si>
+  <si>
+    <t>768x1280</t>
   </si>
   <si>
     <t>wifi</t>
   </si>
   <si>
-    <t>20秒</t>
-  </si>
-  <si>
-    <t>18%</t>
-  </si>
-  <si>
-    <t>11%</t>
-  </si>
-  <si>
-    <t>221M</t>
-  </si>
-  <si>
-    <t>71M</t>
+    <t>4秒</t>
+  </si>
+  <si>
+    <t>0.0%</t>
+  </si>
+  <si>
+    <t>85.0M</t>
+  </si>
+  <si>
+    <t>0.0M</t>
   </si>
   <si>
     <t>60</t>
@@ -110,13 +107,10 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>110KB</t>
-  </si>
-  <si>
-    <t>17KB</t>
-  </si>
-  <si>
-    <t>8KB</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>410000.0KB</t>
   </si>
   <si>
     <t>cpu(%)</t>
@@ -244,27 +238,15 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>DU2TAN15AJ049163detail!$A$1:$A$6</c:f>
+              <c:f>192.168.179.101_5555detail!$A$1:$A$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -349,27 +331,15 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>DU2TAN15AJ049163detail!$B$1:$B$6</c:f>
+              <c:f>192.168.179.101_5555detail!$B$1:$B$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>207</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -454,33 +424,21 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>DU2TAN15AJ049163detail!$D$1:$D$8</c:f>
+              <c:f>192.168.179.101_5555detail!$D$1:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>84</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>84</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>84</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -565,26 +523,14 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>DU2TAN15AJ049163detail!$C$1:$C$6</c:f>
+              <c:f>192.168.179.101_5555detail!$C$1:$C$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
@@ -670,27 +616,15 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>DU2TAN15AJ049163detail!$E$1:$E$6</c:f>
+              <c:f>192.168.179.101_5555detail!$E$1:$E$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>897747</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>897856</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>897857</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>897865</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>897865</c:v>
+                  <c:v>46265</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -775,27 +709,15 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>DU2TAN15AJ049163detail!$F$1:$F$6</c:f>
+              <c:f>192.168.179.101_5555detail!$F$1:$F$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>143530</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>143546</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>143548</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>143558</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>143559</c:v>
+                  <c:v>410000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -852,13 +774,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -882,13 +804,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -912,13 +834,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -942,13 +864,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -972,13 +894,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1002,13 +924,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1437,37 +1359,37 @@
         <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2">
+        <v>97</v>
+      </c>
+      <c r="N3" s="2">
+        <v>97</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="2">
-        <v>84</v>
-      </c>
-      <c r="N3" s="2">
-        <v>84</v>
-      </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="Q3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1"/>
@@ -1490,7 +1412,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1506,134 +1428,57 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1">
       <c r="A2" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>176</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2">
         <v>60</v>
       </c>
       <c r="D2" s="2">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E2" s="2">
-        <v>897747</v>
+        <v>46265</v>
       </c>
       <c r="F2" s="2">
-        <v>143530</v>
+        <v>410000</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1">
-      <c r="A3" s="2">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2">
-        <v>212</v>
-      </c>
-      <c r="C3" s="2">
-        <v>60</v>
-      </c>
       <c r="D3" s="2">
-        <v>84</v>
-      </c>
-      <c r="E3" s="2">
-        <v>897856</v>
-      </c>
-      <c r="F3" s="2">
-        <v>143546</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>221</v>
-      </c>
-      <c r="C4" s="2">
-        <v>60</v>
-      </c>
       <c r="D4" s="2">
-        <v>84</v>
-      </c>
-      <c r="E4" s="2">
-        <v>897857</v>
-      </c>
-      <c r="F4" s="2">
-        <v>143548</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1">
-      <c r="A5" s="2">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2">
-        <v>217</v>
-      </c>
-      <c r="C5" s="2">
-        <v>60</v>
-      </c>
-      <c r="D5" s="2">
-        <v>84</v>
-      </c>
-      <c r="E5" s="2">
-        <v>897865</v>
-      </c>
-      <c r="F5" s="2">
-        <v>143558</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1">
-      <c r="A6" s="2">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2">
-        <v>207</v>
-      </c>
-      <c r="C6" s="2">
-        <v>60</v>
-      </c>
-      <c r="D6" s="2">
-        <v>84</v>
-      </c>
-      <c r="E6" s="2">
-        <v>897865</v>
-      </c>
-      <c r="F6" s="2">
-        <v>143559</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1">
-      <c r="D7" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="D8" s="2">
-        <v>84</v>
-      </c>
-    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1"/>
+    <row r="6" spans="1:6" ht="30" customHeight="1"/>
+    <row r="7" spans="1:6" ht="30" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
